--- a/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
+++ b/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\documents\Kind\my_projects\git\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC7E65-1491-4581-B8B2-3F07885190DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A559742-83C1-4212-A3BB-AC74FC374BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -25,12 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Item</t>
   </si>
   <si>
     <t>Checked</t>
+  </si>
+  <si>
+    <t>Use Copies of Data</t>
+  </si>
+  <si>
+    <t>Concurency</t>
+  </si>
+  <si>
+    <t>Run threads more than cores</t>
+  </si>
+  <si>
+    <t>Run on different platform</t>
+  </si>
+  <si>
+    <t>Insert yiled(), wait(), sleep() to the code for test</t>
+  </si>
+  <si>
+    <t>Testing only thread aware code</t>
   </si>
 </sst>
 </file>
@@ -464,7 +482,7 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +490,7 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,33 +511,45 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">

--- a/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
+++ b/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\documents\Kind\my_projects\git\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A559742-83C1-4212-A3BB-AC74FC374BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B5834-D127-45E1-9265-16B397C682DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -49,13 +49,34 @@
   </si>
   <si>
     <t>Testing only thread aware code</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Meaningful Names</t>
+  </si>
+  <si>
+    <t>Hungarian Notation, member prefixes is needed anymore</t>
+  </si>
+  <si>
+    <t>Class, Object -&gt; use noun</t>
+  </si>
+  <si>
+    <t>Method -&gt; use verb</t>
+  </si>
+  <si>
+    <t>Use descriptive &amp; unique name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +102,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,15 +198,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,165 +539,378 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>8</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
+        <v>9</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>14</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="E18" s="10">
+        <v>15</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="E19" s="10">
+        <v>16</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="E20" s="10">
+        <v>17</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="E21" s="10">
+        <v>18</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
+      <c r="E22" s="10">
+        <v>19</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
+        <v>20</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
+        <v>21</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <v>22</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10">
+        <v>23</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <v>24</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10">
+        <v>25</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10">
+        <v>26</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10">
+        <v>27</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
+        <v>28</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10">
+        <v>29</v>
+      </c>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10">
+        <v>30</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10">
+        <v>31</v>
+      </c>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10">
+        <v>32</v>
+      </c>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10">
+        <v>33</v>
+      </c>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10">
+        <v>34</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10">
+        <v>35</v>
+      </c>
+      <c r="F38" s="11"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F38" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
+      <formula1>"o,x"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
+++ b/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\documents\Kind\my_projects\git\Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\appli_design\iei\git\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B5834-D127-45E1-9265-16B397C682DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BDE857-6877-40B7-AC25-82BA90076F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -69,20 +80,33 @@
     <t>Method -&gt; use verb</t>
   </si>
   <si>
-    <t>Use descriptive &amp; unique name</t>
+    <t>Use descriptive &amp; unique name based on context</t>
+  </si>
+  <si>
+    <t>Function Rules</t>
+  </si>
+  <si>
+    <t>Do one thing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,14 +119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
@@ -111,15 +127,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,23 +233,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,7 +571,7 @@
   <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,369 +581,375 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>14</v>
       </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
-        <v>6</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
-        <v>7</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
-        <v>9</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
-        <v>10</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
-        <v>11</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <v>12</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
-        <v>14</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <v>15</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <v>16</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <v>17</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10" t="s">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <v>18</v>
       </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10" t="s">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="7">
         <v>19</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
         <v>20</v>
       </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
         <v>21</v>
       </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>22</v>
       </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
         <v>23</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
         <v>24</v>
       </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
         <v>25</v>
       </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
         <v>26</v>
       </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
         <v>27</v>
       </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7">
         <v>28</v>
       </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
         <v>29</v>
       </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
         <v>30</v>
       </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
         <v>31</v>
       </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7">
         <v>32</v>
       </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
         <v>33</v>
       </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7">
         <v>34</v>
       </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7">
         <v>35</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
+++ b/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\appli_design\iei\git\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BDE857-6877-40B7-AC25-82BA90076F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A40AED-C4B5-4D23-9D6B-C7795F47727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Item</t>
   </si>
@@ -86,7 +86,46 @@
     <t>Function Rules</t>
   </si>
   <si>
-    <t>Do one thing</t>
+    <t>Top - Down: Stepdown Rule</t>
+  </si>
+  <si>
+    <t>Switch Statement may violate SRP</t>
+  </si>
+  <si>
+    <t>Clean Architecture</t>
+  </si>
+  <si>
+    <t>Follow SOLID principle</t>
+  </si>
+  <si>
+    <t>Dependency Inversion Principle (DIP)</t>
+  </si>
+  <si>
+    <t>Interface Segregation Principle (ISP)</t>
+  </si>
+  <si>
+    <t>Single Responsibility Principle (SRP)</t>
+  </si>
+  <si>
+    <t>Liskov Substitution / Design by Contract</t>
+  </si>
+  <si>
+    <t>Open - Closed Principle (OCP)</t>
+  </si>
+  <si>
+    <t>Use max 3 arguments. Exp: Func (arg1, arg2, arg3)</t>
+  </si>
+  <si>
+    <t>Not use argument as output</t>
+  </si>
+  <si>
+    <t>Do one thing (do only, or answer only)</t>
+  </si>
+  <si>
+    <t>Prefer Exceptions instead of Returning error codes</t>
+  </si>
+  <si>
+    <t>Use class object if more than 3 arguments</t>
   </si>
 </sst>
 </file>
@@ -235,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -253,6 +292,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -568,17 +608,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -610,11 +650,13 @@
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -625,7 +667,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -636,7 +678,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -647,7 +689,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E7" s="7">
         <v>4</v>
@@ -658,7 +700,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
@@ -667,11 +709,11 @@
     </row>
     <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7">
         <v>6</v>
@@ -681,7 +723,9 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="7">
         <v>7</v>
       </c>
@@ -690,7 +734,9 @@
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="7">
         <v>8</v>
       </c>
@@ -699,16 +745,22 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E12" s="7">
         <v>9</v>
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+    <row r="13" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="7">
         <v>10</v>
       </c>
@@ -717,7 +769,9 @@
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="7">
         <v>11</v>
       </c>
@@ -726,7 +780,9 @@
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E15" s="7">
         <v>12</v>
       </c>
@@ -735,7 +791,9 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="7">
         <v>13</v>
       </c>
@@ -744,19 +802,19 @@
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="7">
         <v>14</v>
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="13" t="s">
-        <v>3</v>
-      </c>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E18" s="7">
         <v>15</v>
@@ -764,10 +822,10 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E19" s="7">
         <v>16</v>
@@ -775,32 +833,30 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7">
         <v>17</v>
       </c>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7">
         <v>18</v>
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
+    <row r="22" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E22" s="7">
         <v>19</v>
@@ -810,7 +866,9 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E23" s="7">
         <v>20</v>
       </c>
@@ -819,7 +877,9 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E24" s="7">
         <v>21</v>
       </c>
@@ -828,7 +888,9 @@
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="7">
         <v>22</v>
       </c>
@@ -837,7 +899,9 @@
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E26" s="7">
         <v>23</v>
       </c>
@@ -951,9 +1015,45 @@
       </c>
       <c r="F38" s="9"/>
     </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <v>36</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7">
+        <v>37</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7">
+        <v>38</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7">
+        <v>39</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F38" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F42" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
       <formula1>"o,x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
+++ b/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\appli_design\iei\git\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A40AED-C4B5-4D23-9D6B-C7795F47727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAF232-7DF9-4A31-9B25-2D0F88189123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Item</t>
   </si>
@@ -119,13 +119,19 @@
     <t>Not use argument as output</t>
   </si>
   <si>
-    <t>Do one thing (do only, or answer only)</t>
-  </si>
-  <si>
     <t>Prefer Exceptions instead of Returning error codes</t>
   </si>
   <si>
     <t>Use class object if more than 3 arguments</t>
+  </si>
+  <si>
+    <t>Exctract try/catch block (just call a function, not excecute lines of code)</t>
+  </si>
+  <si>
+    <t>Do one thing (do 1 thing only, or answer 1 thing only)</t>
+  </si>
+  <si>
+    <t>No duplicates</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +625,7 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -759,7 +765,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7">
         <v>10</v>
@@ -803,7 +809,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="7">
         <v>14</v>
@@ -825,7 +831,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="7">
         <v>16</v>
@@ -835,7 +841,9 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E20" s="7">
         <v>17</v>
       </c>
@@ -844,147 +852,131 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
-        <v>18</v>
-      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="13" t="s">
-        <v>3</v>
-      </c>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7">
-        <v>19</v>
-      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7">
-        <v>20</v>
-      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>21</v>
-      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="7">
-        <v>22</v>
-      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7">
-        <v>23</v>
-      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7">
-        <v>24</v>
-      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7">
-        <v>25</v>
-      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7">
-        <v>26</v>
-      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
+    <row r="31" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E31" s="7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E32" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E33" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E34" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E35" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F35" s="9"/>
     </row>
@@ -993,7 +985,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F36" s="9"/>
     </row>
@@ -1002,7 +994,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F37" s="9"/>
     </row>
@@ -1011,7 +1003,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F38" s="9"/>
     </row>
@@ -1020,7 +1012,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F39" s="9"/>
     </row>
@@ -1029,7 +1021,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F40" s="9"/>
     </row>
@@ -1038,7 +1030,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F41" s="9"/>
     </row>
@@ -1047,13 +1039,94 @@
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7">
+        <v>30</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7">
+        <v>31</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7">
+        <v>32</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
+        <v>33</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7">
+        <v>34</v>
+      </c>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7">
+        <v>35</v>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
+        <v>36</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
+        <v>37</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
+        <v>38</v>
+      </c>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7">
         <v>39</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F51" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F42" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F51" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
       <formula1>"o,x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
+++ b/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\appli_design\iei\git\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAF232-7DF9-4A31-9B25-2D0F88189123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F10825-F03A-46B4-AD95-73B9E78D8CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -132,6 +132,30 @@
   </si>
   <si>
     <t>No duplicates</t>
+  </si>
+  <si>
+    <t>It is OK to not follow Structured Programming</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No commented out code</t>
+  </si>
+  <si>
+    <t>Avoid comment, comment if only necessary</t>
+  </si>
+  <si>
+    <t>Formatting</t>
+  </si>
+  <si>
+    <t>News paper metaphor (upper: headline, lower: details)</t>
+  </si>
+  <si>
+    <t>Add blank space each function, or group of code</t>
+  </si>
+  <si>
+    <t>Variable declared close to it's user</t>
   </si>
 </sst>
 </file>
@@ -215,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -275,17 +299,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -293,12 +383,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -616,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
   <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,498 +729,518 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>4</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>6</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>7</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>9</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>11</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>12</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>13</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>14</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>15</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>16</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>17</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
+      <c r="E21" s="5">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
         <v>18</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>19</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>20</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>21</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>22</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>23</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7">
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
         <v>24</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7">
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <v>25</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7">
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5">
         <v>26</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7">
+      <c r="B39" s="6"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
         <v>27</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7">
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
         <v>28</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7">
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
         <v>29</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7">
+      <c r="B42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
         <v>30</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7">
+      <c r="B43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
         <v>31</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7">
+      <c r="B44" s="6"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
         <v>32</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7">
+      <c r="B45" s="6"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5">
         <v>33</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7">
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
         <v>34</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7">
+      <c r="B47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
         <v>35</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7">
+      <c r="B48" s="6"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5">
         <v>36</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7">
+      <c r="B49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
         <v>37</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7">
+      <c r="B50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
         <v>38</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7">
+      <c r="B51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5">
         <v>39</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
+++ b/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\appli_design\iei\git\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F10825-F03A-46B4-AD95-73B9E78D8CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6ACF7A-35C6-4F39-BE43-1909BA448989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Item</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>Variable declared close to it's user</t>
+  </si>
+  <si>
+    <t>Instance variable usually placed on the top, because used by many function</t>
+  </si>
+  <si>
+    <t>Horizontal openess and density is important too (exp: -2 + 7*3)</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>there is no space between "-" and 2, because it tells notation, there is space between 2 "+" and 7, because it tells operation. There is no space between 7*3, because it tells higher order operation than substraction operation</t>
+  </si>
+  <si>
+    <t>Follow teams rule or current format rule</t>
+  </si>
+  <si>
+    <t>such as indentation</t>
   </si>
 </sst>
 </file>
@@ -372,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -397,6 +415,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -712,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
-  <dimension ref="B2:F51"/>
+  <dimension ref="B2:G61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,9 +751,10 @@
     <col min="4" max="4" width="67.85546875" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -740,8 +766,11 @@
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
@@ -751,8 +780,9 @@
         <v>0</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
@@ -766,8 +796,9 @@
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
@@ -777,8 +808,9 @@
         <v>2</v>
       </c>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
@@ -788,8 +820,9 @@
         <v>3</v>
       </c>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
@@ -799,8 +832,9 @@
         <v>4</v>
       </c>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
@@ -810,8 +844,9 @@
         <v>5</v>
       </c>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
@@ -823,8 +858,9 @@
         <v>6</v>
       </c>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
@@ -834,8 +870,9 @@
         <v>7</v>
       </c>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
@@ -845,8 +882,9 @@
         <v>8</v>
       </c>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
@@ -856,8 +894,9 @@
         <v>9</v>
       </c>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
@@ -869,8 +908,9 @@
         <v>10</v>
       </c>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
@@ -880,8 +920,9 @@
         <v>11</v>
       </c>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
@@ -891,8 +932,9 @@
         <v>12</v>
       </c>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
@@ -902,8 +944,9 @@
         <v>13</v>
       </c>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
@@ -913,8 +956,9 @@
         <v>14</v>
       </c>
       <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
@@ -924,8 +968,9 @@
         <v>15</v>
       </c>
       <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
@@ -935,8 +980,9 @@
         <v>16</v>
       </c>
       <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
@@ -946,8 +992,9 @@
         <v>17</v>
       </c>
       <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
@@ -957,8 +1004,9 @@
         <v>18</v>
       </c>
       <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19" t="s">
@@ -968,8 +1016,9 @@
         <v>19</v>
       </c>
       <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
@@ -979,8 +1028,9 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19" t="s">
@@ -988,8 +1038,9 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>36</v>
       </c>
@@ -999,8 +1050,9 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
@@ -1008,8 +1060,9 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
@@ -1017,234 +1070,349 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
         <v>18</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5">
-        <v>19</v>
-      </c>
       <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="5">
-        <v>20</v>
-      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="5">
-        <v>21</v>
-      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5">
-        <v>22</v>
-      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5">
-        <v>23</v>
-      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5">
-        <v>24</v>
-      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <v>25</v>
-      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <v>26</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5">
-        <v>27</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5">
-        <v>28</v>
-      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="E41" s="5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E42" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E43" s="5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E44" s="5">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="5">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5">
+        <v>29</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5">
+        <v>30</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5">
+        <v>31</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5">
+        <v>32</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5">
+        <v>33</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5">
+        <v>34</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5">
+        <v>35</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5">
+        <v>36</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5">
+        <v>37</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5">
+        <v>38</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="25"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5">
         <v>39</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F51" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F61" xr:uid="{61127672-DD1D-4A1D-A44F-A10AE583788D}">
       <formula1>"o,x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
+++ b/CheckSheet_from_Clean.Code.A.Handbook.of.Agile.Software.Craftsmanship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\appli_design\iei\git\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6ACF7A-35C6-4F39-BE43-1909BA448989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8EEDBA-857F-4E5A-94C0-CCFA63C50DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Item</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>such as indentation</t>
+  </si>
+  <si>
+    <t>Objects and Data Structures</t>
+  </si>
+  <si>
+    <t>Use Data Abstraction to communicate each layer</t>
+  </si>
+  <si>
+    <t>Use Procedural Code / Object Oriented code depends on the needs</t>
+  </si>
+  <si>
+    <t>Follow Law of Demeter</t>
   </si>
 </sst>
 </file>
@@ -739,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
   <dimension ref="B2:G61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,10 +1106,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="5"/>
@@ -1106,10 +1118,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+    <row r="31" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" s="5">
         <v>18</v>
       </c>
@@ -1119,7 +1135,9 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="7"/>
       <c r="G32" s="25"/>
@@ -1127,7 +1145,9 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
       <c r="G33" s="25"/>
